--- a/xlsdir/配置-道具.xlsx
+++ b/xlsdir/配置-道具.xlsx
@@ -12,7 +12,7 @@
     <sheet name="item_abilities|道具技能" sheetId="56" r:id="rId3"/>
     <sheet name="enhancements|强化" sheetId="57" r:id="rId4"/>
     <sheet name="recipes|合成" sheetId="58" r:id="rId5"/>
-    <sheet name="shop|商店" sheetId="59" r:id="rId6"/>
+    <sheet name="shops|商店" sheetId="59" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -8061,7 +8061,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
